--- a/src/main/resources/templates/input.xlsx
+++ b/src/main/resources/templates/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop_mendix\Excel_Generator_20250107\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC15FF-11F6-4A94-A30B-80B4F91E0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6928DE03-7B4F-4620-BB5D-A1F97F33F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="15983" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>ZUO Matt</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Shiftly confirm</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
 </sst>
 </file>
@@ -622,26 +619,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -684,8 +663,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,7 +1099,7 @@
   <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G5" sqref="G5:AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,338 +1116,338 @@
   <sheetData>
     <row r="1" spans="1:37" ht="37.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AK1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AB2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AE2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="48" t="s">
+      <c r="AG2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="48" t="s">
+      <c r="AH2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="48" t="s">
+      <c r="AI2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="48" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="X3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="32" t="s">
+      <c r="AB3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AD3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="32" t="s">
+      <c r="AE3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AF3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="32" t="s">
+      <c r="AG3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AH3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="32" t="s">
+      <c r="AI3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="32" t="s">
+      <c r="AJ3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="33" t="s">
+      <c r="AK3" s="51" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1574,99 +1571,37 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK5" s="55" t="s">
-        <v>42</v>
-      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
@@ -1962,6 +1897,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AF3:AK3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
@@ -1977,12 +1918,6 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>

--- a/src/main/resources/templates/input.xlsx
+++ b/src/main/resources/templates/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop_mendix\Excel_Generator_20250107\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6928DE03-7B4F-4620-BB5D-A1F97F33F4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E2DF05-3E6B-49A3-93EA-4B2248C31B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19240" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Check List" sheetId="15983" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t>ZUO Matt</t>
   </si>
@@ -170,7 +170,10 @@
     <t>Monthly confirm</t>
   </si>
   <si>
-    <t>Shiftly confirm</t>
+    <t>Machine Type:</t>
+  </si>
+  <si>
+    <t>Machine Name:</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,26 +238,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -488,50 +473,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -568,24 +514,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,60 +526,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -661,28 +559,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +676,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>226455</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>473862</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1096,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:AK5"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,492 +1044,492 @@
   <sheetData>
     <row r="1" spans="1:37" ht="37.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="V1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="32" t="s">
+      <c r="AH1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="32" t="s">
+      <c r="AI1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="32" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>4</v>
+      </c>
+      <c r="K4" s="16">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16">
+        <v>7</v>
+      </c>
+      <c r="N4" s="16">
+        <v>8</v>
+      </c>
+      <c r="O4" s="16">
+        <v>9</v>
+      </c>
+      <c r="P4" s="16">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="Q4" s="16">
         <v>11</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="37" t="s">
+      <c r="R4" s="16">
         <v>12</v>
       </c>
-      <c r="R2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="37" t="s">
+      <c r="S4" s="16">
         <v>13</v>
       </c>
-      <c r="AB2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="41" t="s">
+      <c r="T4" s="16">
         <v>14</v>
       </c>
-      <c r="AF2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK2" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="U4" s="16">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="54" t="s">
+      <c r="V4" s="16">
         <v>16</v>
       </c>
-      <c r="H3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="55" t="s">
+      <c r="W4" s="16">
         <v>17</v>
       </c>
-      <c r="R3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="55" t="s">
+      <c r="X4" s="16">
         <v>18</v>
       </c>
-      <c r="V3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="50" t="s">
+      <c r="Y4" s="16">
         <v>19</v>
       </c>
-      <c r="AB3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE3" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ3" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="Z4" s="16">
         <v>20</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="AA4" s="16">
         <v>21</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="AB4" s="16">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="AC4" s="16">
         <v>23</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="AD4" s="16">
         <v>24</v>
       </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22">
-        <v>2</v>
-      </c>
-      <c r="I4" s="22">
-        <v>3</v>
-      </c>
-      <c r="J4" s="22">
-        <v>4</v>
-      </c>
-      <c r="K4" s="22">
-        <v>5</v>
-      </c>
-      <c r="L4" s="22">
-        <v>6</v>
-      </c>
-      <c r="M4" s="22">
-        <v>7</v>
-      </c>
-      <c r="N4" s="22">
-        <v>8</v>
-      </c>
-      <c r="O4" s="22">
-        <v>9</v>
-      </c>
-      <c r="P4" s="22">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>11</v>
-      </c>
-      <c r="R4" s="22">
-        <v>12</v>
-      </c>
-      <c r="S4" s="22">
-        <v>13</v>
-      </c>
-      <c r="T4" s="22">
-        <v>14</v>
-      </c>
-      <c r="U4" s="22">
-        <v>15</v>
-      </c>
-      <c r="V4" s="22">
-        <v>16</v>
-      </c>
-      <c r="W4" s="22">
-        <v>17</v>
-      </c>
-      <c r="X4" s="22">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="22">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="22">
-        <v>22</v>
-      </c>
-      <c r="AC4" s="22">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="22">
-        <v>24</v>
-      </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="16">
         <v>25</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AF4" s="16">
         <v>26</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="16">
         <v>27</v>
       </c>
-      <c r="AH4" s="22">
+      <c r="AH4" s="16">
         <v>28</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="16">
         <v>29</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="16">
         <v>30</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="17">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
@@ -1650,38 +1578,38 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="15"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="42"/>
     </row>
     <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -1691,218 +1619,171 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="17"/>
-    </row>
-    <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+    </row>
+    <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30"/>
-    </row>
-    <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="19"/>
-    </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="46"/>
+    </row>
+    <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="12" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
@@ -1918,6 +1799,12 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:X1"/>
+    <mergeCell ref="AF3:AK3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
